--- a/data/trans_dic/P41_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P41_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene contrato temporal en la actualidad</t>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 22,18</t>
+          <t>2,87; 10,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 39,35</t>
+          <t>9,19; 34,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 37,15</t>
+          <t>5,4; 28,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 48,75</t>
+          <t>9,76; 37,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 31,79</t>
+          <t>4,67; 41,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,83; 34,45</t>
+          <t>7,57; 16,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,57; 37,52</t>
+          <t>6,74; 15,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,63; 38,55</t>
+          <t>10,36; 21,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,24; 25,4</t>
+          <t>9,04; 19,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,08; 34,5</t>
+          <t>3,44; 10,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 34,17</t>
+          <t>6,49; 12,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,01; 40,19</t>
+          <t>9,21; 22,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 21,44</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 24,67</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 23,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,14; 45,34</t>
+          <t>7,48; 19,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 49,87</t>
+          <t>8,28; 20,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,9; 54,08</t>
+          <t>13,56; 28,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,13; 56,86</t>
+          <t>14,53; 30,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 41,56</t>
+          <t>1,6; 10,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,6; 47,55</t>
+          <t>8,66; 19,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 45,93</t>
+          <t>10,02; 21,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,42; 42,32</t>
+          <t>7,7; 18,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,96; 39,07</t>
+          <t>6,43; 16,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,82; 44,85</t>
+          <t>7,13; 17,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,01; 48,36</t>
+          <t>9,36; 17,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 49,01</t>
+          <t>10,45; 19,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 21,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,16; 22,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 11,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,94</t>
+          <t>0,0; 22,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 48,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,6</t>
+          <t>0,0; 20,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,04</t>
+          <t>0,0; 20,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,0; 73,31</t>
+          <t>0,0; 31,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 60,03</t>
+          <t>8,42; 36,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 59,61</t>
+          <t>3,25; 26,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,53; 62,99</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,48; 52,21</t>
+          <t>3,06; 25,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 45,23</t>
+          <t>6,77; 28,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 33,71</t>
+          <t>4,79; 21,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 38,74</t>
+          <t>1,41; 15,09</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 14,44</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 18,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 20,78</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 28,76</t>
+          <t>5,8; 11,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 38,33</t>
+          <t>9,01; 22,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,14; 37,0</t>
+          <t>10,4; 22,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,66; 44,48</t>
+          <t>13,02; 28,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,23; 34,82</t>
+          <t>4,62; 24,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,2; 36,75</t>
+          <t>9,84; 16,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 38,26</t>
+          <t>9,37; 16,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 37,67</t>
+          <t>9,97; 16,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 29,61</t>
+          <t>9,09; 15,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,87; 34,72</t>
+          <t>6,81; 12,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,2</t>
+          <t>8,79; 13,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,64; 39,24</t>
+          <t>10,5; 17,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 18,25</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 20,71</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 17,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21730</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70136</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45306</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70105</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>83145</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50567</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>54618</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62604</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53504</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34408</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72297</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>124755</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>107909</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>123609</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>117553</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10495; 39447</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39530; 146879</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19788; 105847</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37168; 142433</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23850; 209692</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32969; 70056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33782; 77098</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42622; 88050</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35977; 78505</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19404; 57196</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51961; 101479</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>85785; 209751</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>76350; 166740</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>86143; 192142</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>57638; 257439</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39232</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49818</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65033</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70786</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17791</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45736</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63255</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41184</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35947</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>47975</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84967</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>113073</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>106217</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>106733</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>65766</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22801; 60528</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29743; 75211</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43181; 90900</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46864; 98268</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6352; 39819</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30313; 68342</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42161; 88859</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25555; 60158</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21156; 54404</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30323; 73323</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>61295; 113793</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81503; 148233</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81695; 140866</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>79256; 145578</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>44113; 93625</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5114</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5058</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6573</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17034</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4185</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8863</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18123</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20305</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9299</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13921</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>24696</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19400</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16578</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17285</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 37557</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6954; 30443</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3293; 26315</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13133</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2406; 19940</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7538; 32161</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8021; 36551</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2867; 30625</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2788; 22687</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5710; 29943</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10504; 47959</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64233</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>119954</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>115453</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>145948</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>107509</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>113336</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>127962</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>107973</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98314</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100506</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>177570</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>247916</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>223425</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>244263</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>208015</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43822; 90483</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80312; 201182</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>79469; 173814</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>102713; 222398</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47486; 254987</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>85377; 146230</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>95891; 167837</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>81851; 138490</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73243; 127789</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74985; 138193</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>142705; 215680</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>200953; 342618</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>180515; 289297</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>196626; 330214</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>136054; 376839</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
